--- a/DATA_goal/Junction_Flooding_192.xlsx
+++ b/DATA_goal/Junction_Flooding_192.xlsx
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
@@ -451,26 +451,26 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>41624.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>21.14</v>
+        <v>2.11</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.41</v>
+        <v>1.44</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.09</v>
+        <v>0.41</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>44.47</v>
+        <v>4.45</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>36.59</v>
+        <v>3.66</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>16.64</v>
+        <v>1.66</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>54.16</v>
+        <v>5.42</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>25.6</v>
+        <v>2.56</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.79</v>
+        <v>1.08</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>16.57</v>
+        <v>1.66</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>17.66</v>
+        <v>1.77</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.45</v>
+        <v>1.85</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.54</v>
+        <v>1.65</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>23.19</v>
+        <v>2.32</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.97</v>
+        <v>1.4</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.73</v>
+        <v>0.37</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.45</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>244.44</v>
+        <v>24.44</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>46.03</v>
+        <v>4.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>30.4</v>
+        <v>3.04</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>15.79</v>
+        <v>1.58</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.61</v>
+        <v>0.26</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>26.88</v>
+        <v>2.69</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.49</v>
+        <v>1.35</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.18</v>
+        <v>1.22</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.25</v>
+        <v>1.43</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>18.23</v>
+        <v>1.82</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>47.88</v>
+        <v>4.79</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.43</v>
+        <v>0.84</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>19.09</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41624.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.74</v>
+        <v>1.37</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.619999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.72</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>29.3</v>
+        <v>2.93</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>24.12</v>
+        <v>2.41</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.81</v>
+        <v>1.08</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>43.23</v>
+        <v>4.32</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.64</v>
+        <v>1.66</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.15</v>
+        <v>0.72</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.74</v>
+        <v>1.07</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.81</v>
+        <v>1.18</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.3</v>
+        <v>1.23</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.46</v>
+        <v>0.35</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.75</v>
+        <v>1.08</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15.14</v>
+        <v>1.51</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.27</v>
+        <v>0.93</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.59</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>156.35</v>
+        <v>15.64</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>30.14</v>
+        <v>3.01</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.93</v>
+        <v>0.99</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>19.92</v>
+        <v>1.99</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.58</v>
+        <v>1.06</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>20.55</v>
+        <v>2.06</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.77</v>
+        <v>0.88</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.96</v>
+        <v>0.8</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.28</v>
+        <v>1.23</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>39.26</v>
+        <v>3.93</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.46</v>
+        <v>0.55</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41624.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>23.25</v>
+        <v>2.33</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.01</v>
+        <v>1.7</v>
       </c>
       <c r="D4" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>26.97</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AC4" s="4" t="n">
         <v>1.55</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>50.22</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>41.43</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>69.52</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>28.16</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>18.57</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>20.23</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>21.25</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>25.85</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>15.37</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>269.66</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>50.86</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>34.1</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>18.06</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>14.84</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>15.51</v>
-      </c>
       <c r="AD4" s="4" t="n">
-        <v>21.18</v>
+        <v>2.12</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>62.98</v>
+        <v>6.3</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.43</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>21</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41624.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>8.94</v>
+        <v>0.89</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.37</v>
+        <v>0.64</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.85</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>19.18</v>
+        <v>1.92</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>15.76</v>
+        <v>1.58</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.03</v>
+        <v>0.7</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>31.77</v>
+        <v>3.18</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.82</v>
+        <v>1.08</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.73</v>
+        <v>0.47</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>6.99</v>
+        <v>0.7</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>7.78</v>
+        <v>0.78</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.09</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.25</v>
+        <v>0.23</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.99</v>
+        <v>0.7</v>
       </c>
       <c r="P5" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T5" s="4" t="n">
         <v>9.91</v>
       </c>
-      <c r="Q5" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>99.14</v>
-      </c>
       <c r="U5" s="4" t="n">
-        <v>19.73</v>
+        <v>1.97</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.45</v>
+        <v>0.65</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>13.1</v>
+        <v>1.31</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.97</v>
+        <v>0.7</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>14.68</v>
+        <v>1.47</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>5.7</v>
+        <v>0.57</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.15</v>
+        <v>0.52</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.04</v>
+        <v>0.6</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.109999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>29.05</v>
+        <v>2.9</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.07</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41624.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>2.59</v>
+        <v>0.26</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.68</v>
+        <v>0.17</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>5.44</v>
+        <v>0.54</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>2.04</v>
+        <v>0.2</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>12.34</v>
+        <v>1.23</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>3.14</v>
+        <v>0.31</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1.35</v>
+        <v>0.13</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>2.28</v>
+        <v>0.23</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>2.88</v>
+        <v>0.29</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.89</v>
+        <v>0.19</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>23.63</v>
+        <v>2.36</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>5.95</v>
+        <v>0.59</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.87</v>
+        <v>0.19</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>3.88</v>
+        <v>0.39</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>5.37</v>
+        <v>0.54</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>1.66</v>
+        <v>0.17</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>1.58</v>
+        <v>0.16</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>2.32</v>
+        <v>0.23</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>11.45</v>
+        <v>1.15</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>2.35</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41624.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>12.11</v>
+        <v>1.21</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>26.18</v>
+        <v>2.62</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>21.56</v>
+        <v>2.16</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>9.529999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>33.61</v>
+        <v>3.36</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>6.46</v>
+        <v>0.65</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>9.640000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>10.57</v>
+        <v>1.06</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>11.09</v>
+        <v>1.11</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>9.470000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>13.42</v>
+        <v>1.34</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>136.85</v>
+        <v>13.68</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>26.34</v>
+        <v>2.63</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>8.75</v>
+        <v>0.87</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>17.64</v>
+        <v>1.76</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>9.42</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>16.43</v>
+        <v>1.64</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>7.72</v>
+        <v>0.77</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>6.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>8.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>11.07</v>
+        <v>1.11</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>30.09</v>
+        <v>3.01</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>10.93</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41624.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>1.15</v>
+        <v>0.12</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.67</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>2.38</v>
+        <v>0.24</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>1.4</v>
+        <v>0.14</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>1.41</v>
+        <v>0.14</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>6.55</v>
+        <v>0.65</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>3.01</v>
+        <v>0.3</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>2.08</v>
+        <v>0.21</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>4.06</v>
+        <v>0.41</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>0.85</v>
+        <v>0.09</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>1.06</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41624.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>22.39</v>
+        <v>2.24</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>16.65</v>
+        <v>1.67</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>48.59</v>
+        <v>4.86</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>40.1</v>
+        <v>4.01</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>17.62</v>
+        <v>1.76</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>62.5</v>
+        <v>6.25</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>27.11</v>
+        <v>2.71</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>12.09</v>
+        <v>1.21</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>18.03</v>
+        <v>1.8</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>19.55</v>
+        <v>1.96</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>20.61</v>
+        <v>2.06</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>5.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>17.52</v>
+        <v>1.75</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>24.96</v>
+        <v>2.5</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>259.33</v>
+        <v>25.93</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>48.84</v>
+        <v>4.88</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>16.17</v>
+        <v>1.62</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>32.95</v>
+        <v>3.29</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>17.43</v>
+        <v>1.74</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>2.43</v>
+        <v>0.24</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>31.18</v>
+        <v>3.12</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>14.28</v>
+        <v>1.43</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>12.61</v>
+        <v>1.26</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>14.83</v>
+        <v>1.48</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>20.52</v>
+        <v>2.05</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>56.46</v>
+        <v>5.65</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>9.15</v>
+        <v>0.92</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>20.22</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41624.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>17.01</v>
+        <v>1.7</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>36.9</v>
+        <v>3.69</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>30.43</v>
+        <v>3.04</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>13.38</v>
+        <v>1.34</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>53.26</v>
+        <v>5.33</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>20.59</v>
+        <v>2.06</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>9.19</v>
+        <v>0.92</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>14.86</v>
+        <v>1.49</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>15.65</v>
+        <v>1.57</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>4.28</v>
+        <v>0.43</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>13.31</v>
+        <v>1.33</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>18.99</v>
+        <v>1.9</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>11.15</v>
+        <v>1.12</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>195.27</v>
+        <v>19.53</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>37.27</v>
+        <v>3.73</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>12.28</v>
+        <v>1.23</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>25.12</v>
+        <v>2.51</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>13.26</v>
+        <v>1.33</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.86</v>
+        <v>0.19</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>25.69</v>
+        <v>2.57</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>10.85</v>
+        <v>1.09</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>9.59</v>
+        <v>0.96</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>11.27</v>
+        <v>1.13</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>15.59</v>
+        <v>1.56</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>48.46</v>
+        <v>4.85</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>6.94</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>15.36</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_192.xlsx
+++ b/DATA_goal/Junction_Flooding_192.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,35 +443,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -652,7 +652,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41624.34027777778</v>
+        <v>44873.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>2.11</v>
@@ -756,55 +756,55 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41624.34722222222</v>
+        <v>44873.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.93</v>
+        <v>2.66</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.41</v>
+        <v>2.19</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.08</v>
+        <v>0.98</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.32</v>
+        <v>3.98</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.66</v>
+        <v>1.51</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="K3" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="L3" s="4" t="n">
         <v>1.07</v>
       </c>
-      <c r="L3" s="4" t="n">
-        <v>1.18</v>
-      </c>
       <c r="M3" s="4" t="n">
-        <v>1.23</v>
+        <v>1.11</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.08</v>
+        <v>0.98</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.51</v>
+        <v>1.37</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>0.16</v>
@@ -813,881 +813,361 @@
         <v>0.1</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>15.64</v>
+        <v>14.15</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.01</v>
+        <v>2.74</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.99</v>
+        <v>1.81</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.06</v>
+        <v>0.96</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.06</v>
+        <v>1.88</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.23</v>
+        <v>1.11</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.93</v>
+        <v>3.62</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41624.35416666666</v>
+        <v>44873.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.33</v>
+        <v>2.02</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.02</v>
+        <v>4.35</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.14</v>
+        <v>3.59</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.83</v>
+        <v>1.59</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.95</v>
+        <v>6.03</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.82</v>
+        <v>2.44</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.24</v>
+        <v>1.08</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.86</v>
+        <v>1.61</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.02</v>
+        <v>1.76</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.12</v>
+        <v>1.84</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.51</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.82</v>
+        <v>1.58</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.58</v>
+        <v>2.24</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.54</v>
+        <v>1.34</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>26.97</v>
+        <v>23.3</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.09</v>
+        <v>4.41</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.68</v>
+        <v>1.46</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.41</v>
+        <v>2.95</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.81</v>
+        <v>1.57</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.38</v>
+        <v>2.92</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.48</v>
+        <v>1.29</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.12</v>
+        <v>1.84</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.3</v>
+        <v>5.46</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41624.36111111111</v>
+        <v>44873.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.89</v>
+        <v>1.44</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.64</v>
+        <v>1.05</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.92</v>
+        <v>3.11</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.58</v>
+        <v>2.56</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.7</v>
+        <v>1.13</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.18</v>
+        <v>4.59</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.08</v>
+        <v>1.75</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.77</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.7</v>
+        <v>1.14</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.78</v>
+        <v>1.26</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.32</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.7</v>
+        <v>1.13</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.99</v>
+        <v>1.6</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.6</v>
+        <v>0.96</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>9.91</v>
+        <v>16.44</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.97</v>
+        <v>3.16</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.65</v>
+        <v>1.04</v>
       </c>
       <c r="W5" s="4" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AD5" s="4" t="n">
         <v>1.31</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.8100000000000001</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.9</v>
+        <v>4.16</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.58</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41624.36805555555</v>
+        <v>44873.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.26</v>
+        <v>12.49</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.17</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.85</v>
       </c>
       <c r="E6" s="4" t="n">
+        <v>26.97</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>39.32</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="S6" s="4" t="n">
         <v>0.54</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="T6" s="4" t="n">
+        <v>141.46</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>18.31</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="AE6" s="4" t="n">
         <v>0.44</v>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF6" s="4" t="n">
-        <v>1.15</v>
+        <v>35.65</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.1</v>
+        <v>5.04</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41624.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>13.68</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.09</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41624.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41624.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>25.93</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>2.02</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41624.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>19.53</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.54</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41624.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>10.84</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>31.69</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>26.13</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>11.49</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>45.88</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>17.68</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>13.44</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>16.3</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>166.65</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>32</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>21.56</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>22.02</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>13.39</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>41.65</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>13.19</v>
+        <v>11.28</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_192.xlsx
+++ b/DATA_goal/Junction_Flooding_192.xlsx
@@ -444,34 +444,34 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -655,103 +655,103 @@
         <v>44873.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.11</v>
+        <v>21.14</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.09</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.45</v>
+        <v>44.47</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.66</v>
+        <v>36.59</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.66</v>
+        <v>16.64</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.42</v>
+        <v>54.16</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.56</v>
+        <v>25.6</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.08</v>
+        <v>10.79</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.66</v>
+        <v>16.57</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.77</v>
+        <v>17.66</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.85</v>
+        <v>18.45</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.53</v>
+        <v>5.31</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.65</v>
+        <v>16.54</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.32</v>
+        <v>23.19</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.4</v>
+        <v>13.97</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.73</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>24.44</v>
+        <v>244.44</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.6</v>
+        <v>46.03</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.53</v>
+        <v>15.27</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.04</v>
+        <v>30.4</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.58</v>
+        <v>15.79</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.69</v>
+        <v>26.88</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.35</v>
+        <v>13.49</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.18</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.43</v>
+        <v>14.25</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.82</v>
+        <v>18.23</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.79</v>
+        <v>47.88</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.43</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.91</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44873.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.25</v>
+        <v>12.49</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.68</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.66</v>
+        <v>26.58</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.19</v>
+        <v>21.88</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.83</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.98</v>
+        <v>39.8</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.51</v>
+        <v>15.12</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.47</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.73</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.07</v>
+        <v>10.72</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.15</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.14</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.75</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>14.15</v>
+        <v>141.47</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.74</v>
+        <v>27.42</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.81</v>
+        <v>18.08</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.96</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.88</v>
+        <v>18.84</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.26</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.11</v>
+        <v>11.13</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.62</v>
+        <v>36.17</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.95</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44873.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.02</v>
+        <v>20.18</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.7</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.45</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.35</v>
+        <v>43.53</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.59</v>
+        <v>35.89</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.59</v>
+        <v>15.88</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.03</v>
+        <v>60.3</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.44</v>
+        <v>24.43</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.61</v>
+        <v>16.07</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.76</v>
+        <v>17.55</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.84</v>
+        <v>18.41</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.58</v>
+        <v>15.79</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.24</v>
+        <v>22.4</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.38</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>23.3</v>
+        <v>233.03</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.41</v>
+        <v>44.13</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.58</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.95</v>
+        <v>29.54</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.57</v>
+        <v>15.67</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.33</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.92</v>
+        <v>29.24</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.87</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.49</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.35</v>
+        <v>13.49</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.84</v>
+        <v>18.36</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.46</v>
+        <v>54.57</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.16</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.82</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44873.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.49</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.11</v>
+        <v>31.09</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.56</v>
+        <v>25.62</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.59</v>
+        <v>45.85</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.75</v>
+        <v>17.45</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.77</v>
+        <v>7.69</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.44</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.26</v>
+        <v>12.56</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.15</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.6</v>
+        <v>16.01</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.59</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>16.44</v>
+        <v>164.36</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.16</v>
+        <v>31.6</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.11</v>
+        <v>21.13</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.12</v>
+        <v>11.22</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.69</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.18</v>
+        <v>21.82</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.82</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.65</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.13</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.16</v>
+        <v>41.64</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_192.xlsx
+++ b/DATA_goal/Junction_Flooding_192.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,100 +655,100 @@
         <v>44873.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>21.14</v>
+        <v>21.139</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.41</v>
+        <v>14.405</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.09</v>
+        <v>4.093</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>44.47</v>
+        <v>44.473</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>36.59</v>
+        <v>36.592</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>16.64</v>
+        <v>16.635</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>54.16</v>
+        <v>54.157</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>25.6</v>
+        <v>25.596</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.79</v>
+        <v>10.793</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>16.57</v>
+        <v>16.568</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>17.66</v>
+        <v>17.656</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.45</v>
+        <v>18.451</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.31</v>
+        <v>5.311</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.54</v>
+        <v>16.542</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>23.19</v>
+        <v>23.194</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>13.97</v>
+        <v>13.966</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.73</v>
+        <v>3.726</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.45</v>
+        <v>2.455</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>244.44</v>
+        <v>244.445</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>46.03</v>
+        <v>46.035</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.27</v>
+        <v>15.269</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>30.4</v>
+        <v>30.403</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>15.79</v>
+        <v>15.788</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>2.61</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>26.88</v>
+        <v>26.878</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.49</v>
+        <v>13.487</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.18</v>
+        <v>12.177</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.25</v>
+        <v>14.251</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>18.23</v>
+        <v>18.232</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>47.88</v>
+        <v>47.882</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.43</v>
+        <v>8.427</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>19.09</v>
@@ -759,103 +759,103 @@
         <v>44873.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.49</v>
+        <v>12.491</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.68</v>
+        <v>8.683999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.68</v>
+        <v>1.677</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>26.58</v>
+        <v>26.582</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>21.88</v>
+        <v>21.876</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>9.83</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>39.8</v>
+        <v>39.799</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.12</v>
+        <v>15.125</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.47</v>
+        <v>6.474</v>
       </c>
       <c r="K3" s="4" t="n">
         <v>9.73</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.72</v>
+        <v>10.724</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.15</v>
+        <v>11.148</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.14</v>
+        <v>3.142</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>9.775</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>13.75</v>
+        <v>13.745</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>8.461</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.58</v>
+        <v>1.575</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.96</v>
+        <v>0.959</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>141.47</v>
+        <v>141.474</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>27.42</v>
+        <v>27.424</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>18.08</v>
+        <v>18.084</v>
       </c>
       <c r="X3" s="4" t="n">
         <v>9.609999999999999</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.61</v>
+        <v>1.608</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>18.84</v>
+        <v>18.837</v>
       </c>
       <c r="AA3" s="4" t="n">
         <v>7.97</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.26</v>
+        <v>7.264</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.5</v>
+        <v>8.497999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.13</v>
+        <v>11.133</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>36.17</v>
+        <v>36.174</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.95</v>
+        <v>4.948</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.28</v>
+        <v>11.281</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44873.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>20.18</v>
+        <v>20.178</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>14.7</v>
+        <v>14.701</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.45</v>
+        <v>1.447</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>43.53</v>
+        <v>43.528</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>35.89</v>
+        <v>35.895</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15.88</v>
+        <v>15.879</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>60.3</v>
+        <v>60.296</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>24.43</v>
+        <v>24.432</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.76</v>
+        <v>10.759</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>16.07</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>17.55</v>
+        <v>17.551</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>18.41</v>
+        <v>18.407</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.07</v>
+        <v>5.072</v>
       </c>
       <c r="O4" s="4" t="n">
         <v>15.79</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>22.4</v>
+        <v>22.403</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>13.38</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.11</v>
+        <v>1.107</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.93</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>233.03</v>
+        <v>233.027</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>44.13</v>
+        <v>44.129</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>14.58</v>
+        <v>14.575</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>29.54</v>
+        <v>29.541</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>15.67</v>
+        <v>15.666</v>
       </c>
       <c r="Y4" s="4" t="n">
         <v>2.33</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>29.24</v>
+        <v>29.243</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.87</v>
+        <v>12.874</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>11.49</v>
+        <v>11.489</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>13.49</v>
+        <v>13.488</v>
       </c>
       <c r="AD4" s="4" t="n">
         <v>18.36</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>54.57</v>
+        <v>54.573</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.16</v>
+        <v>8.161</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>18.22</v>
+        <v>18.222</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>13.02</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44873.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>26.97</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>22.21</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>39.32</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>13.88</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>141.46</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>27.37</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>18.31</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>35.65</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.28</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_192.xlsx
+++ b/DATA_goal/Junction_Flooding_192.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44873.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.41</v>
+        <v>14.413</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.49</v>
+        <v>10.488</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.04</v>
+        <v>1.038</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>31.09</v>
+        <v>31.091</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>25.62</v>
+        <v>25.615</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.34</v>
+        <v>11.343</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>45.85</v>
+        <v>45.851</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.45</v>
+        <v>17.452</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.69</v>
+        <v>7.688</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.44</v>
+        <v>11.443</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.56</v>
+        <v>12.559</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.15</v>
+        <v>13.153</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.62</v>
+        <v>3.624</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.28</v>
+        <v>11.279</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.01</v>
+        <v>16.007</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.59</v>
+        <v>9.592000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.65</v>
+        <v>0.655</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>164.36</v>
+        <v>164.362</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>31.6</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.41</v>
+        <v>10.411</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.13</v>
+        <v>21.128</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.22</v>
+        <v>11.217</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.69</v>
+        <v>1.695</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>21.82</v>
+        <v>21.819</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.196</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>8.218999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.65</v>
+        <v>9.647</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.13</v>
+        <v>13.134</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>41.64</v>
+        <v>41.636</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.81</v>
+        <v>5.814</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.02</v>
+        <v>13.016</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44873.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>26.97</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>39.32</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>9.92</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>141.46</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>18.31</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>7.97</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.11</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>35.65</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>11.28</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_192.xlsx
+++ b/DATA_goal/Junction_Flooding_192.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44873.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.413</v>
+        <v>14.41</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.488</v>
+        <v>10.49</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.038</v>
+        <v>1.04</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>31.091</v>
+        <v>31.09</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>25.615</v>
+        <v>25.62</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.343</v>
+        <v>11.34</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>45.851</v>
+        <v>45.85</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>17.452</v>
+        <v>17.45</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.688</v>
+        <v>7.69</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>11.443</v>
+        <v>11.44</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.559</v>
+        <v>12.56</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.153</v>
+        <v>13.15</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.624</v>
+        <v>3.62</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.279</v>
+        <v>11.28</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.007</v>
+        <v>16.01</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.592000000000001</v>
+        <v>9.59</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.655</v>
+        <v>0.65</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>164.362</v>
+        <v>164.36</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>31.6</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.411</v>
+        <v>10.41</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>21.128</v>
+        <v>21.13</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.217</v>
+        <v>11.22</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.695</v>
+        <v>1.69</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>21.819</v>
+        <v>21.82</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.196</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.218999999999999</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.647</v>
+        <v>9.65</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.134</v>
+        <v>13.13</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>41.636</v>
+        <v>41.64</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.814</v>
+        <v>5.81</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.016</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44873.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>26.97</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>22.21</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>39.32</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>9.92</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>13.88</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>141.46</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>27.37</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>18.31</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>7.97</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>35.65</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.28</v>
+        <v>13.02</v>
       </c>
     </row>
   </sheetData>
